--- a/modelling/train_sizes.xlsx
+++ b/modelling/train_sizes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\mnt\DataDrive3\vlad\git_repos\kornet\modelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B767DF-EF89-4C83-AE1B-014A53AEB220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D4D808-EF46-42F9-A1C5-BD5B1EB277D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{4BBEA61B-7AD6-4135-A896-6F64E2A7E755}"/>
   </bookViews>
@@ -535,7 +535,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -599,7 +599,7 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1">
-        <f t="shared" ref="I2:I27" si="0">(D2*G2)+H2</f>
+        <f t="shared" ref="H2:I27" si="0">(D2*G2)+H2</f>
         <v>105000000</v>
       </c>
     </row>
@@ -938,11 +938,11 @@
         <v>30</v>
       </c>
       <c r="H17" s="1">
-        <v>105000000</v>
+        <v>768700200</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="0"/>
-        <v>108000000</v>
+        <v>771700200</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
